--- a/data/Retirement.xlsx
+++ b/data/Retirement.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1900" windowWidth="17240" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Retirement" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,15 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,12 +42,6 @@
   </si>
   <si>
     <t>Hispanic</t>
-  </si>
-  <si>
-    <t>African American</t>
-  </si>
-  <si>
-    <t>Average Family Liquid Retirement Savings, 1989-2013</t>
   </si>
   <si>
     <r>
@@ -59,10 +66,52 @@
     </r>
   </si>
   <si>
-    <t>Source: Urban Institute calculations from Survey of Consumer Finances 1989–2013.</t>
+    <t>Average Family Liquid Retirement Savings, 1989-2016</t>
   </si>
   <si>
-    <t>Notes: 2013 dollars. Liquid retirement savings include dollars in accounts such as 401(k), 403(b), and IRAs. Median liquid retirement savings for African American and Hispanic families were zero from 1989 to 2013. Median liquid retirement savings for whites was zero through the mid-1990s, about $1,500 in 1998, and $5,000 in 2013.</t>
+    <t>Black</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Urban Institute calculations from Survey of Consumer Finances 1989–2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2016 dollars. Liquid retirement savings include dollars in accounts such as 401(k), 403(b), and IRAs. Median liquid retirement savings for black and Hispanic families were zero from 1989 to 2013. Median liquid retirement savings for whites was zero through the mid-1990s, about $1,500 in 1998, and $10,000 in 2016.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -72,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +172,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,10 +207,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -171,12 +233,19 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -201,6 +270,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23667,12 +23739,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23702,12 +23774,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23911,180 +23983,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1989</v>
       </c>
-      <c r="B3">
-        <v>31629.47</v>
+      <c r="B3" s="4">
+        <v>32649.43</v>
       </c>
-      <c r="C3">
-        <v>5768.384</v>
+      <c r="C3" s="4">
+        <v>5954.3980000000001</v>
       </c>
-      <c r="D3">
-        <v>6899.241</v>
+      <c r="D3" s="4">
+        <v>7121.7219999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B4">
-        <v>35495.089999999997</v>
+      <c r="B4" s="4">
+        <v>36637.760000000002</v>
       </c>
-      <c r="C4">
-        <v>7554.9849999999997</v>
+      <c r="C4" s="4">
+        <v>7798.1970000000001</v>
       </c>
-      <c r="D4">
-        <v>5085.1899999999996</v>
+      <c r="D4" s="4">
+        <v>5248.8940000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
-      <c r="B5">
-        <v>46236.29</v>
+      <c r="B5" s="4">
+        <v>47702.19</v>
       </c>
-      <c r="C5">
-        <v>9625.2250000000004</v>
+      <c r="C5" s="4">
+        <v>9930.3880000000008</v>
       </c>
-      <c r="D5">
-        <v>19208.64</v>
+      <c r="D5" s="4">
+        <v>19817.64</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1998</v>
       </c>
-      <c r="B6">
-        <v>61745.73</v>
+      <c r="B6" s="4">
+        <v>64303.56</v>
       </c>
-      <c r="C6">
-        <v>16035.7</v>
+      <c r="C6" s="4">
+        <v>16252.23</v>
       </c>
-      <c r="D6">
-        <v>14129.04</v>
+      <c r="D6" s="4">
+        <v>14610.48</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2001</v>
       </c>
-      <c r="B7">
-        <v>88508</v>
+      <c r="B7" s="4">
+        <v>91828.2</v>
       </c>
-      <c r="C7">
-        <v>17034.810000000001</v>
+      <c r="C7" s="4">
+        <v>17565.830000000002</v>
       </c>
-      <c r="D7">
-        <v>16546.68</v>
+      <c r="D7" s="4">
+        <v>17314.47</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2004</v>
       </c>
-      <c r="B8">
-        <v>94047.19</v>
+      <c r="B8" s="4">
+        <v>98172.39</v>
       </c>
-      <c r="C8">
-        <v>23690.68</v>
+      <c r="C8" s="4">
+        <v>25085.81</v>
       </c>
-      <c r="D8">
-        <v>12332.59</v>
+      <c r="D8" s="4">
+        <v>12732.21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>107568.5</v>
+      <c r="B9" s="4">
+        <v>114264.6</v>
       </c>
-      <c r="C9">
-        <v>27950.25</v>
+      <c r="C9" s="4">
+        <v>29364.69</v>
       </c>
-      <c r="D9">
-        <v>22601.48</v>
+      <c r="D9" s="4">
+        <v>23178.79</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10">
-        <v>117152</v>
+      <c r="B10" s="4">
+        <v>124496.6</v>
       </c>
-      <c r="C10">
-        <v>18337.689999999999</v>
+      <c r="C10" s="4">
+        <v>19290.86</v>
       </c>
-      <c r="D10">
-        <v>18475.95</v>
+      <c r="D10" s="4">
+        <v>20058.13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11">
-        <v>130472.1</v>
+      <c r="B11" s="4">
+        <v>138557.5</v>
       </c>
-      <c r="C11">
-        <v>19049.39</v>
+      <c r="C11" s="4">
+        <v>20440.14</v>
       </c>
-      <c r="D11">
-        <v>12328.63</v>
+      <c r="D11" s="4">
+        <v>10264.48</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="4">
+        <v>157884.20000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>25211.85</v>
+      </c>
+      <c r="D12" s="4">
+        <v>28581.119999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A16" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="95" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Retirement.xlsx
+++ b/data/Retirement.xlsx
@@ -66,9 +66,6 @@
     </r>
   </si>
   <si>
-    <t>Average Family Liquid Retirement Savings, 1989-2016</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -78,6 +75,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source:</t>
@@ -94,11 +92,15 @@
     </r>
   </si>
   <si>
+    <t>Average Family Liquid Retirement Savings, 1989–2016</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Notes: </t>
@@ -110,7 +112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2016 dollars. Liquid retirement savings include dollars in accounts such as 401(k), 403(b), and IRAs. Median liquid retirement savings for black and Hispanic families were zero from 1989 to 2013. Median liquid retirement savings for whites was zero through the mid-1990s, about $1,500 in 1998, and $10,000 in 2016.</t>
+      <t>2016 dollars. Liquid retirement savings include dollars in accounts such as 401(k), 403(b), and IRAs. Median liquid retirement savings for black and Hispanic families were zero from 1989 to 2013. Median liquid retirement savings for whites were zero through the mid-1990s, about $1,500 in 1998, and $10,000 in 2016.</t>
     </r>
   </si>
 </sst>
@@ -177,12 +179,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -23988,19 +23992,18 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -24008,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -24157,7 +24160,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
